--- a/回答用紙.xlsx
+++ b/回答用紙.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TakayukiKiyohara\Documents\github\GameMath_2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\GameMath_2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA2B41F-40EF-499B-974B-99777458F14B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{436B8C3A-989C-4D79-AD41-FD15E7ABC78F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AC54879F-470C-4180-9D58-17B32EB36F32}"/>
   </bookViews>
@@ -712,7 +712,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -797,27 +797,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -840,9 +819,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
@@ -850,6 +826,42 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1165,10 +1177,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7476465-3AF2-4B5B-9030-EE00F70BD739}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B2:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1180,20 +1195,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
     </row>
     <row r="3" spans="2:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
     </row>
     <row r="5" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B5" s="1"/>
@@ -1205,14 +1220,14 @@
       </c>
     </row>
     <row r="6" spans="2:8" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="30" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="7">
         <v>1</v>
       </c>
       <c r="D6" s="12"/>
-      <c r="F6" s="43" t="s">
+      <c r="F6" s="40" t="s">
         <v>5</v>
       </c>
       <c r="G6" s="2">
@@ -1221,60 +1236,60 @@
       <c r="H6" s="12"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B7" s="38"/>
+      <c r="B7" s="31"/>
       <c r="C7" s="8">
         <v>2</v>
       </c>
       <c r="D7" s="13"/>
-      <c r="F7" s="38"/>
+      <c r="F7" s="41"/>
       <c r="G7" s="3">
         <v>2</v>
       </c>
       <c r="H7" s="13"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B8" s="38"/>
+      <c r="B8" s="31"/>
       <c r="C8" s="8">
         <v>3</v>
       </c>
       <c r="D8" s="13"/>
-      <c r="F8" s="38"/>
+      <c r="F8" s="41"/>
       <c r="G8" s="3">
         <v>3</v>
       </c>
       <c r="H8" s="13"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B9" s="38"/>
+      <c r="B9" s="31"/>
       <c r="C9" s="8">
         <v>4</v>
       </c>
       <c r="D9" s="13"/>
-      <c r="F9" s="38"/>
+      <c r="F9" s="41"/>
       <c r="G9" s="3">
         <v>4</v>
       </c>
       <c r="H9" s="13"/>
     </row>
     <row r="10" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="38"/>
+      <c r="B10" s="31"/>
       <c r="C10" s="8">
         <v>5</v>
       </c>
       <c r="D10" s="13"/>
-      <c r="F10" s="39"/>
+      <c r="F10" s="42"/>
       <c r="G10" s="4">
         <v>5</v>
       </c>
       <c r="H10" s="14"/>
     </row>
     <row r="11" spans="2:8" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="38"/>
+      <c r="B11" s="31"/>
       <c r="C11" s="8">
         <v>6</v>
       </c>
       <c r="D11" s="13"/>
-      <c r="F11" s="37" t="s">
+      <c r="F11" s="43" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="2">
@@ -1282,63 +1297,63 @@
       </c>
       <c r="H11" s="12"/>
     </row>
-    <row r="12" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="39"/>
-      <c r="C12" s="9">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B12" s="31"/>
+      <c r="C12" s="8">
         <v>7</v>
       </c>
-      <c r="D12" s="14"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="44">
+      <c r="D12" s="13"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="36">
         <v>2</v>
       </c>
-      <c r="H12" s="36"/>
-    </row>
-    <row r="13" spans="2:8" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="35">
-        <v>1</v>
-      </c>
-      <c r="D13" s="36"/>
-      <c r="F13" s="38"/>
+      <c r="H12" s="29"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B13" s="38"/>
+      <c r="C13" s="8">
+        <v>8</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="F13" s="41"/>
       <c r="G13" s="3">
         <v>3</v>
       </c>
       <c r="H13" s="13"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B14" s="38"/>
+      <c r="B14" s="31"/>
       <c r="C14" s="8">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D14" s="13"/>
-      <c r="F14" s="38"/>
+      <c r="F14" s="41"/>
       <c r="G14" s="3">
         <v>4</v>
       </c>
       <c r="H14" s="13"/>
     </row>
     <row r="15" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="38"/>
-      <c r="C15" s="8">
-        <v>3</v>
-      </c>
-      <c r="D15" s="13"/>
-      <c r="F15" s="39"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="9">
+        <v>10</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="F15" s="42"/>
       <c r="G15" s="4">
         <v>5</v>
       </c>
       <c r="H15" s="14"/>
     </row>
     <row r="16" spans="2:8" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="38"/>
-      <c r="C16" s="8">
-        <v>4</v>
-      </c>
-      <c r="D16" s="13"/>
-      <c r="F16" s="37" t="s">
+      <c r="B16" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="28">
+        <v>1</v>
+      </c>
+      <c r="D16" s="29"/>
+      <c r="F16" s="43" t="s">
         <v>13</v>
       </c>
       <c r="G16" s="2">
@@ -1346,64 +1361,64 @@
       </c>
       <c r="H16" s="12"/>
     </row>
-    <row r="17" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="39"/>
-      <c r="C17" s="9">
-        <v>5</v>
-      </c>
-      <c r="D17" s="14"/>
-      <c r="F17" s="38"/>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B17" s="31"/>
+      <c r="C17" s="8">
+        <v>2</v>
+      </c>
+      <c r="D17" s="13"/>
+      <c r="F17" s="41"/>
       <c r="G17" s="3">
         <v>2</v>
       </c>
       <c r="H17" s="13"/>
     </row>
-    <row r="18" spans="2:8" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" s="45">
-        <v>1</v>
-      </c>
-      <c r="F18" s="38"/>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B18" s="31"/>
+      <c r="C18" s="8">
+        <v>3</v>
+      </c>
+      <c r="D18" s="13"/>
+      <c r="F18" s="41"/>
       <c r="G18" s="3">
         <v>3</v>
       </c>
       <c r="H18" s="13"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B19" s="38"/>
-      <c r="C19" s="35">
-        <v>1</v>
-      </c>
-      <c r="D19" s="36"/>
-      <c r="F19" s="38"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="8">
+        <v>4</v>
+      </c>
+      <c r="D19" s="13"/>
+      <c r="F19" s="41"/>
       <c r="G19" s="3">
         <v>4</v>
       </c>
       <c r="H19" s="13"/>
     </row>
     <row r="20" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="38"/>
-      <c r="C20" s="8">
-        <v>2</v>
-      </c>
-      <c r="D20" s="13"/>
-      <c r="F20" s="39"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="9">
+        <v>5</v>
+      </c>
+      <c r="D20" s="14"/>
+      <c r="F20" s="42"/>
       <c r="G20" s="4">
         <v>5</v>
       </c>
       <c r="H20" s="14"/>
     </row>
     <row r="21" spans="2:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="38"/>
-      <c r="C21" s="8">
-        <v>3</v>
-      </c>
-      <c r="D21" s="13"/>
+      <c r="B21" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="37">
+        <v>1</v>
+      </c>
       <c r="F21" s="27" t="s">
         <v>15</v>
       </c>
@@ -1411,24 +1426,24 @@
       <c r="H21" s="12"/>
     </row>
     <row r="22" spans="2:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="38"/>
-      <c r="C22" s="8">
-        <v>4</v>
-      </c>
-      <c r="D22" s="13"/>
-      <c r="F22" s="42" t="s">
+      <c r="B22" s="31"/>
+      <c r="C22" s="28">
+        <v>1</v>
+      </c>
+      <c r="D22" s="29"/>
+      <c r="F22" s="35" t="s">
         <v>16</v>
       </c>
       <c r="G22" s="25"/>
       <c r="H22" s="26"/>
     </row>
-    <row r="23" spans="2:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="39"/>
-      <c r="C23" s="9">
-        <v>5</v>
-      </c>
-      <c r="D23" s="14"/>
-      <c r="F23" s="37" t="s">
+    <row r="23" spans="2:8" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="31"/>
+      <c r="C23" s="8">
+        <v>2</v>
+      </c>
+      <c r="D23" s="13"/>
+      <c r="F23" s="43" t="s">
         <v>17</v>
       </c>
       <c r="G23" s="2">
@@ -1436,39 +1451,54 @@
       </c>
       <c r="H23" s="12"/>
     </row>
-    <row r="24" spans="2:8" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="40"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="F24" s="38"/>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B24" s="31"/>
+      <c r="C24" s="8">
+        <v>3</v>
+      </c>
+      <c r="D24" s="13"/>
+      <c r="F24" s="41"/>
       <c r="G24" s="3">
         <v>2</v>
       </c>
       <c r="H24" s="13"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="F25" s="38"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="8">
+        <v>4</v>
+      </c>
+      <c r="D25" s="13"/>
+      <c r="F25" s="41"/>
       <c r="G25" s="3">
         <v>3</v>
       </c>
       <c r="H25" s="13"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="F26" s="38"/>
+    <row r="26" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="32"/>
+      <c r="C26" s="9">
+        <v>5</v>
+      </c>
+      <c r="D26" s="14"/>
+      <c r="F26" s="41"/>
       <c r="G26" s="3">
         <v>4</v>
       </c>
       <c r="H26" s="13"/>
     </row>
-    <row r="27" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="F27" s="39"/>
+    <row r="27" spans="2:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="33"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="F27" s="42"/>
       <c r="G27" s="4">
         <v>5</v>
       </c>
       <c r="H27" s="14"/>
     </row>
     <row r="28" spans="2:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="F28" s="42" t="s">
+      <c r="F28" s="35" t="s">
         <v>18</v>
       </c>
       <c r="G28" s="25"/>
@@ -1476,20 +1506,17 @@
     </row>
     <row r="29" spans="2:8" ht="19.5" thickTop="1" x14ac:dyDescent="0.4"/>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="F6:F10"/>
-    <mergeCell ref="F11:F15"/>
-    <mergeCell ref="B18:B23"/>
-    <mergeCell ref="F16:F20"/>
+  <mergeCells count="6">
     <mergeCell ref="F23:F27"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:B12"/>
+    <mergeCell ref="F6:F10"/>
+    <mergeCell ref="F11:F15"/>
+    <mergeCell ref="F16:F20"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="115" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1510,20 +1537,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
     </row>
     <row r="3" spans="2:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
     </row>
     <row r="5" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B5" s="1"/>
@@ -1535,14 +1562,14 @@
       </c>
     </row>
     <row r="6" spans="2:8" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="43" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="12"/>
-      <c r="F6" s="32" t="s">
+      <c r="F6" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G6" s="2" t="s">
@@ -1551,74 +1578,74 @@
       <c r="H6" s="12"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B7" s="38"/>
+      <c r="B7" s="41"/>
       <c r="C7" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="13"/>
-      <c r="F7" s="33"/>
+      <c r="F7" s="45"/>
       <c r="G7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H7" s="13"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B8" s="38"/>
+      <c r="B8" s="41"/>
       <c r="C8" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="13"/>
-      <c r="F8" s="33"/>
+      <c r="F8" s="45"/>
       <c r="G8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="H8" s="13"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B9" s="38"/>
+      <c r="B9" s="41"/>
       <c r="C9" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="13"/>
-      <c r="F9" s="33"/>
+      <c r="F9" s="45"/>
       <c r="G9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H9" s="13"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B10" s="38"/>
+      <c r="B10" s="41"/>
       <c r="C10" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="13"/>
-      <c r="F10" s="33"/>
+      <c r="F10" s="45"/>
       <c r="G10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="H10" s="13"/>
     </row>
     <row r="11" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="39"/>
+      <c r="B11" s="42"/>
       <c r="C11" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="14"/>
-      <c r="F11" s="34"/>
+      <c r="F11" s="46"/>
       <c r="G11" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H11" s="14"/>
     </row>
     <row r="12" spans="2:8" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="43" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D12" s="12"/>
-      <c r="F12" s="29" t="s">
+      <c r="F12" s="47" t="s">
         <v>12</v>
       </c>
       <c r="G12" s="2" t="s">
@@ -1627,48 +1654,48 @@
       <c r="H12" s="12"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B13" s="38"/>
+      <c r="B13" s="41"/>
       <c r="C13" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="13"/>
-      <c r="F13" s="30"/>
+      <c r="F13" s="48"/>
       <c r="G13" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H13" s="13"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B14" s="38"/>
+      <c r="B14" s="41"/>
       <c r="C14" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="13"/>
-      <c r="F14" s="30"/>
+      <c r="F14" s="48"/>
       <c r="G14" s="3" t="s">
         <v>7</v>
       </c>
       <c r="H14" s="13"/>
     </row>
     <row r="15" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="38"/>
+      <c r="B15" s="41"/>
       <c r="C15" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D15" s="13"/>
-      <c r="F15" s="31"/>
+      <c r="F15" s="49"/>
       <c r="G15" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H15" s="14"/>
     </row>
     <row r="16" spans="2:8" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="38"/>
+      <c r="B16" s="41"/>
       <c r="C16" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="13"/>
-      <c r="F16" s="29" t="s">
+      <c r="F16" s="47" t="s">
         <v>13</v>
       </c>
       <c r="G16" s="2" t="s">
@@ -1677,50 +1704,50 @@
       <c r="H16" s="12"/>
     </row>
     <row r="17" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="39"/>
+      <c r="B17" s="42"/>
       <c r="C17" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D17" s="14"/>
-      <c r="F17" s="30"/>
+      <c r="F17" s="48"/>
       <c r="G17" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H17" s="13"/>
     </row>
     <row r="18" spans="2:8" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="43" t="s">
         <v>14</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D18" s="12"/>
-      <c r="F18" s="30"/>
+      <c r="F18" s="48"/>
       <c r="G18" s="3" t="s">
         <v>7</v>
       </c>
       <c r="H18" s="13"/>
     </row>
     <row r="19" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="38"/>
+      <c r="B19" s="41"/>
       <c r="C19" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D19" s="13"/>
-      <c r="F19" s="31"/>
+      <c r="F19" s="49"/>
       <c r="G19" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H19" s="14"/>
     </row>
     <row r="20" spans="2:8" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="38"/>
+      <c r="B20" s="41"/>
       <c r="C20" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D20" s="13"/>
-      <c r="F20" s="29" t="s">
+      <c r="F20" s="47" t="s">
         <v>15</v>
       </c>
       <c r="G20" s="2" t="s">
@@ -1729,36 +1756,36 @@
       <c r="H20" s="12"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B21" s="38"/>
+      <c r="B21" s="41"/>
       <c r="C21" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="13"/>
-      <c r="F21" s="30"/>
+      <c r="F21" s="48"/>
       <c r="G21" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H21" s="13"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B22" s="38"/>
+      <c r="B22" s="41"/>
       <c r="C22" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="13"/>
-      <c r="F22" s="30"/>
+      <c r="F22" s="48"/>
       <c r="G22" s="3" t="s">
         <v>7</v>
       </c>
       <c r="H22" s="13"/>
     </row>
     <row r="23" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="39"/>
+      <c r="B23" s="42"/>
       <c r="C23" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D23" s="14"/>
-      <c r="F23" s="31"/>
+      <c r="F23" s="49"/>
       <c r="G23" s="4" t="s">
         <v>8</v>
       </c>
@@ -1828,20 +1855,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
     </row>
     <row r="3" spans="2:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
     </row>
     <row r="5" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B5" s="1"/>
@@ -1853,14 +1880,14 @@
       </c>
     </row>
     <row r="6" spans="2:8" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="47" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="12"/>
-      <c r="F6" s="32" t="s">
+      <c r="F6" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G6" s="2" t="s">
@@ -1869,74 +1896,74 @@
       <c r="H6" s="12"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B7" s="30"/>
+      <c r="B7" s="48"/>
       <c r="C7" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="13"/>
-      <c r="F7" s="33"/>
+      <c r="F7" s="45"/>
       <c r="G7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H7" s="13"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B8" s="30"/>
+      <c r="B8" s="48"/>
       <c r="C8" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="13"/>
-      <c r="F8" s="33"/>
+      <c r="F8" s="45"/>
       <c r="G8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="H8" s="13"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B9" s="30"/>
+      <c r="B9" s="48"/>
       <c r="C9" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="13"/>
-      <c r="F9" s="33"/>
+      <c r="F9" s="45"/>
       <c r="G9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H9" s="13"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B10" s="30"/>
+      <c r="B10" s="48"/>
       <c r="C10" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="13"/>
-      <c r="F10" s="33"/>
+      <c r="F10" s="45"/>
       <c r="G10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="H10" s="13"/>
     </row>
     <row r="11" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="31"/>
+      <c r="B11" s="49"/>
       <c r="C11" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="14"/>
-      <c r="F11" s="34"/>
+      <c r="F11" s="46"/>
       <c r="G11" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H11" s="14"/>
     </row>
     <row r="12" spans="2:8" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="47" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D12" s="12"/>
-      <c r="F12" s="29" t="s">
+      <c r="F12" s="47" t="s">
         <v>12</v>
       </c>
       <c r="G12" s="2" t="s">
@@ -1945,48 +1972,48 @@
       <c r="H12" s="12"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B13" s="30"/>
+      <c r="B13" s="48"/>
       <c r="C13" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="13"/>
-      <c r="F13" s="30"/>
+      <c r="F13" s="48"/>
       <c r="G13" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H13" s="13"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B14" s="30"/>
+      <c r="B14" s="48"/>
       <c r="C14" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="13"/>
-      <c r="F14" s="30"/>
+      <c r="F14" s="48"/>
       <c r="G14" s="3" t="s">
         <v>7</v>
       </c>
       <c r="H14" s="13"/>
     </row>
     <row r="15" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="30"/>
+      <c r="B15" s="48"/>
       <c r="C15" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D15" s="13"/>
-      <c r="F15" s="31"/>
+      <c r="F15" s="49"/>
       <c r="G15" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H15" s="14"/>
     </row>
     <row r="16" spans="2:8" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="30"/>
+      <c r="B16" s="48"/>
       <c r="C16" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="13"/>
-      <c r="F16" s="29" t="s">
+      <c r="F16" s="47" t="s">
         <v>13</v>
       </c>
       <c r="G16" s="2" t="s">
@@ -1995,50 +2022,50 @@
       <c r="H16" s="12"/>
     </row>
     <row r="17" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="31"/>
+      <c r="B17" s="49"/>
       <c r="C17" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D17" s="14"/>
-      <c r="F17" s="30"/>
+      <c r="F17" s="48"/>
       <c r="G17" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H17" s="13"/>
     </row>
     <row r="18" spans="2:8" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="47" t="s">
         <v>14</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D18" s="12"/>
-      <c r="F18" s="30"/>
+      <c r="F18" s="48"/>
       <c r="G18" s="3" t="s">
         <v>7</v>
       </c>
       <c r="H18" s="13"/>
     </row>
     <row r="19" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="30"/>
+      <c r="B19" s="48"/>
       <c r="C19" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D19" s="13"/>
-      <c r="F19" s="31"/>
+      <c r="F19" s="49"/>
       <c r="G19" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H19" s="14"/>
     </row>
     <row r="20" spans="2:8" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="30"/>
+      <c r="B20" s="48"/>
       <c r="C20" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D20" s="13"/>
-      <c r="F20" s="29" t="s">
+      <c r="F20" s="47" t="s">
         <v>15</v>
       </c>
       <c r="G20" s="2" t="s">
@@ -2047,36 +2074,36 @@
       <c r="H20" s="12"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B21" s="30"/>
+      <c r="B21" s="48"/>
       <c r="C21" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="13"/>
-      <c r="F21" s="30"/>
+      <c r="F21" s="48"/>
       <c r="G21" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H21" s="13"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B22" s="30"/>
+      <c r="B22" s="48"/>
       <c r="C22" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="13"/>
-      <c r="F22" s="30"/>
+      <c r="F22" s="48"/>
       <c r="G22" s="3" t="s">
         <v>7</v>
       </c>
       <c r="H22" s="13"/>
     </row>
     <row r="23" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="31"/>
+      <c r="B23" s="49"/>
       <c r="C23" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D23" s="14"/>
-      <c r="F23" s="31"/>
+      <c r="F23" s="49"/>
       <c r="G23" s="4" t="s">
         <v>8</v>
       </c>
@@ -2146,20 +2173,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
     </row>
     <row r="3" spans="2:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
     </row>
     <row r="5" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B5" s="1"/>
@@ -2171,7 +2198,7 @@
       </c>
     </row>
     <row r="6" spans="2:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="47" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="7" t="s">
@@ -2180,7 +2207,7 @@
       <c r="D6" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="32" t="s">
+      <c r="F6" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G6" s="2" t="s">
@@ -2191,14 +2218,14 @@
       </c>
     </row>
     <row r="7" spans="2:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="30"/>
+      <c r="B7" s="48"/>
       <c r="C7" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="33"/>
+      <c r="F7" s="45"/>
       <c r="G7" s="3" t="s">
         <v>6</v>
       </c>
@@ -2207,14 +2234,14 @@
       </c>
     </row>
     <row r="8" spans="2:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="30"/>
+      <c r="B8" s="48"/>
       <c r="C8" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="33"/>
+      <c r="F8" s="45"/>
       <c r="G8" s="3" t="s">
         <v>7</v>
       </c>
@@ -2223,14 +2250,14 @@
       </c>
     </row>
     <row r="9" spans="2:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="30"/>
+      <c r="B9" s="48"/>
       <c r="C9" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="33"/>
+      <c r="F9" s="45"/>
       <c r="G9" s="3" t="s">
         <v>8</v>
       </c>
@@ -2239,14 +2266,14 @@
       </c>
     </row>
     <row r="10" spans="2:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="30"/>
+      <c r="B10" s="48"/>
       <c r="C10" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="33"/>
+      <c r="F10" s="45"/>
       <c r="G10" s="3" t="s">
         <v>9</v>
       </c>
@@ -2255,14 +2282,14 @@
       </c>
     </row>
     <row r="11" spans="2:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="31"/>
+      <c r="B11" s="49"/>
       <c r="C11" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="34"/>
+      <c r="F11" s="46"/>
       <c r="G11" s="4" t="s">
         <v>10</v>
       </c>
@@ -2271,7 +2298,7 @@
       </c>
     </row>
     <row r="12" spans="2:8" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="47" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -2280,7 +2307,7 @@
       <c r="D12" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="29" t="s">
+      <c r="F12" s="47" t="s">
         <v>12</v>
       </c>
       <c r="G12" s="2" t="s">
@@ -2291,14 +2318,14 @@
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B13" s="30"/>
+      <c r="B13" s="48"/>
       <c r="C13" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="30"/>
+      <c r="F13" s="48"/>
       <c r="G13" s="3" t="s">
         <v>6</v>
       </c>
@@ -2307,14 +2334,14 @@
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B14" s="30"/>
+      <c r="B14" s="48"/>
       <c r="C14" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="30"/>
+      <c r="F14" s="48"/>
       <c r="G14" s="3" t="s">
         <v>7</v>
       </c>
@@ -2323,14 +2350,14 @@
       </c>
     </row>
     <row r="15" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="30"/>
+      <c r="B15" s="48"/>
       <c r="C15" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D15" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="31"/>
+      <c r="F15" s="49"/>
       <c r="G15" s="4" t="s">
         <v>8</v>
       </c>
@@ -2339,14 +2366,14 @@
       </c>
     </row>
     <row r="16" spans="2:8" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="30"/>
+      <c r="B16" s="48"/>
       <c r="C16" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="29" t="s">
+      <c r="F16" s="47" t="s">
         <v>13</v>
       </c>
       <c r="G16" s="2" t="s">
@@ -2357,14 +2384,14 @@
       </c>
     </row>
     <row r="17" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="31"/>
+      <c r="B17" s="49"/>
       <c r="C17" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D17" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F17" s="30"/>
+      <c r="F17" s="48"/>
       <c r="G17" s="3" t="s">
         <v>6</v>
       </c>
@@ -2373,7 +2400,7 @@
       </c>
     </row>
     <row r="18" spans="2:8" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="47" t="s">
         <v>14</v>
       </c>
       <c r="C18" s="7" t="s">
@@ -2382,7 +2409,7 @@
       <c r="D18" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F18" s="30"/>
+      <c r="F18" s="48"/>
       <c r="G18" s="3" t="s">
         <v>7</v>
       </c>
@@ -2391,14 +2418,14 @@
       </c>
     </row>
     <row r="19" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="30"/>
+      <c r="B19" s="48"/>
       <c r="C19" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D19" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="F19" s="31"/>
+      <c r="F19" s="49"/>
       <c r="G19" s="4" t="s">
         <v>8</v>
       </c>
@@ -2407,14 +2434,14 @@
       </c>
     </row>
     <row r="20" spans="2:8" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="30"/>
+      <c r="B20" s="48"/>
       <c r="C20" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D20" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F20" s="29" t="s">
+      <c r="F20" s="47" t="s">
         <v>15</v>
       </c>
       <c r="G20" s="2" t="s">
@@ -2425,14 +2452,14 @@
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B21" s="30"/>
+      <c r="B21" s="48"/>
       <c r="C21" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="30"/>
+      <c r="F21" s="48"/>
       <c r="G21" s="3" t="s">
         <v>6</v>
       </c>
@@ -2441,14 +2468,14 @@
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B22" s="30"/>
+      <c r="B22" s="48"/>
       <c r="C22" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="F22" s="30"/>
+      <c r="F22" s="48"/>
       <c r="G22" s="3" t="s">
         <v>7</v>
       </c>
@@ -2457,14 +2484,14 @@
       </c>
     </row>
     <row r="23" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="31"/>
+      <c r="B23" s="49"/>
       <c r="C23" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D23" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="F23" s="31"/>
+      <c r="F23" s="49"/>
       <c r="G23" s="4" t="s">
         <v>8</v>
       </c>
@@ -2526,20 +2553,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
     </row>
     <row r="3" spans="2:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
     </row>
     <row r="5" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B5" s="1"/>
@@ -2551,14 +2578,14 @@
       </c>
     </row>
     <row r="6" spans="2:8" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="47" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="12"/>
-      <c r="F6" s="32" t="s">
+      <c r="F6" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G6" s="2" t="s">
@@ -2567,74 +2594,74 @@
       <c r="H6" s="12"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B7" s="30"/>
+      <c r="B7" s="48"/>
       <c r="C7" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="13"/>
-      <c r="F7" s="33"/>
+      <c r="F7" s="45"/>
       <c r="G7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H7" s="13"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B8" s="30"/>
+      <c r="B8" s="48"/>
       <c r="C8" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="13"/>
-      <c r="F8" s="33"/>
+      <c r="F8" s="45"/>
       <c r="G8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="H8" s="13"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B9" s="30"/>
+      <c r="B9" s="48"/>
       <c r="C9" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="13"/>
-      <c r="F9" s="33"/>
+      <c r="F9" s="45"/>
       <c r="G9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H9" s="13"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B10" s="30"/>
+      <c r="B10" s="48"/>
       <c r="C10" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="13"/>
-      <c r="F10" s="33"/>
+      <c r="F10" s="45"/>
       <c r="G10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="H10" s="13"/>
     </row>
     <row r="11" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="31"/>
+      <c r="B11" s="49"/>
       <c r="C11" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="14"/>
-      <c r="F11" s="34"/>
+      <c r="F11" s="46"/>
       <c r="G11" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H11" s="14"/>
     </row>
     <row r="12" spans="2:8" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="47" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D12" s="12"/>
-      <c r="F12" s="29" t="s">
+      <c r="F12" s="47" t="s">
         <v>12</v>
       </c>
       <c r="G12" s="2" t="s">
@@ -2643,48 +2670,48 @@
       <c r="H12" s="12"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B13" s="30"/>
+      <c r="B13" s="48"/>
       <c r="C13" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="13"/>
-      <c r="F13" s="30"/>
+      <c r="F13" s="48"/>
       <c r="G13" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H13" s="13"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B14" s="30"/>
+      <c r="B14" s="48"/>
       <c r="C14" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="13"/>
-      <c r="F14" s="30"/>
+      <c r="F14" s="48"/>
       <c r="G14" s="3" t="s">
         <v>7</v>
       </c>
       <c r="H14" s="13"/>
     </row>
     <row r="15" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="30"/>
+      <c r="B15" s="48"/>
       <c r="C15" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D15" s="13"/>
-      <c r="F15" s="31"/>
+      <c r="F15" s="49"/>
       <c r="G15" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H15" s="14"/>
     </row>
     <row r="16" spans="2:8" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="30"/>
+      <c r="B16" s="48"/>
       <c r="C16" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="13"/>
-      <c r="F16" s="29" t="s">
+      <c r="F16" s="47" t="s">
         <v>13</v>
       </c>
       <c r="G16" s="2" t="s">
@@ -2693,50 +2720,50 @@
       <c r="H16" s="12"/>
     </row>
     <row r="17" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="31"/>
+      <c r="B17" s="49"/>
       <c r="C17" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D17" s="14"/>
-      <c r="F17" s="30"/>
+      <c r="F17" s="48"/>
       <c r="G17" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H17" s="13"/>
     </row>
     <row r="18" spans="2:8" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="47" t="s">
         <v>14</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D18" s="12"/>
-      <c r="F18" s="30"/>
+      <c r="F18" s="48"/>
       <c r="G18" s="3" t="s">
         <v>7</v>
       </c>
       <c r="H18" s="13"/>
     </row>
     <row r="19" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="30"/>
+      <c r="B19" s="48"/>
       <c r="C19" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D19" s="13"/>
-      <c r="F19" s="31"/>
+      <c r="F19" s="49"/>
       <c r="G19" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H19" s="14"/>
     </row>
     <row r="20" spans="2:8" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="30"/>
+      <c r="B20" s="48"/>
       <c r="C20" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D20" s="13"/>
-      <c r="F20" s="29" t="s">
+      <c r="F20" s="47" t="s">
         <v>15</v>
       </c>
       <c r="G20" s="2" t="s">
@@ -2745,36 +2772,36 @@
       <c r="H20" s="12"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B21" s="30"/>
+      <c r="B21" s="48"/>
       <c r="C21" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="13"/>
-      <c r="F21" s="30"/>
+      <c r="F21" s="48"/>
       <c r="G21" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H21" s="13"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B22" s="30"/>
+      <c r="B22" s="48"/>
       <c r="C22" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="13"/>
-      <c r="F22" s="30"/>
+      <c r="F22" s="48"/>
       <c r="G22" s="3" t="s">
         <v>7</v>
       </c>
       <c r="H22" s="13"/>
     </row>
     <row r="23" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="31"/>
+      <c r="B23" s="49"/>
       <c r="C23" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D23" s="14"/>
-      <c r="F23" s="31"/>
+      <c r="F23" s="49"/>
       <c r="G23" s="4" t="s">
         <v>8</v>
       </c>
